--- a/Datasets/Animals/Species_Richness.xlsx
+++ b/Datasets/Animals/Species_Richness.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Species_Richness" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -705,6 +705,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,11 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3059,7 +3059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
@@ -3299,133 +3299,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
